--- a/Excel/Labs/Excel Essential Labs.xlsx
+++ b/Excel/Labs/Excel Essential Labs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevReady\Workshops\Microsoft Office\Courses\Excel Essential\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117E86B8-60B0-41E7-8D10-0700D8C3197E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A655D0-4403-49BA-8773-E0F44A07A479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52B3A8B0-893E-457F-B649-1D1155AE4865}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14431" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14429" uniqueCount="455">
   <si>
     <t>2010s</t>
   </si>
@@ -1489,6 +1489,24 @@
   </si>
   <si>
     <t>250. 8½ (1963)</t>
+  </si>
+  <si>
+    <t>Taline</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Rayan</t>
+  </si>
+  <si>
+    <t>Total Sales for Mike</t>
   </si>
 </sst>
 </file>
@@ -4062,7 +4080,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4275,10 +4293,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452ECC34-B462-417E-942D-90571B64C282}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4330,16 +4348,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>449</v>
       </c>
       <c r="B6">
-        <v>69270</v>
+        <v>72350</v>
       </c>
       <c r="C6">
-        <v>144330</v>
+        <v>144870</v>
       </c>
       <c r="D6">
-        <v>93110</v>
+        <v>93115</v>
       </c>
       <c r="E6" t="s">
         <v>58</v>
@@ -4348,7 +4366,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="B7">
         <v>73790</v>
@@ -4385,7 +4403,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>451</v>
       </c>
       <c r="B9">
         <v>85490</v>
@@ -4420,7 +4438,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>452</v>
       </c>
       <c r="B11">
         <v>87490</v>
@@ -4437,7 +4455,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>453</v>
       </c>
       <c r="B12">
         <v>10300</v>
@@ -4454,7 +4472,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>450</v>
       </c>
       <c r="B13">
         <v>34596</v>
@@ -4471,31 +4489,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>69</v>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E17" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="7" t="s">
         <v>70</v>
       </c>
     </row>

--- a/Excel/Labs/Excel Essential Labs.xlsx
+++ b/Excel/Labs/Excel Essential Labs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevReady\Workshops\Microsoft Office\Courses\Excel Essential\Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevReady\Workshops\Microsoft Office\Courses\Excel\Excel Essential\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A655D0-4403-49BA-8773-E0F44A07A479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD9847A-0FD3-462C-9EBD-4B9F54166D92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{52B3A8B0-893E-457F-B649-1D1155AE4865}"/>
   </bookViews>
@@ -21,12 +21,14 @@
     <sheet name="Copy and Paste" sheetId="10" r:id="rId6"/>
     <sheet name="Select and Move" sheetId="11" r:id="rId7"/>
     <sheet name="Data Types" sheetId="12" r:id="rId8"/>
-    <sheet name="Relative and absolute" sheetId="13" r:id="rId9"/>
-    <sheet name="COUNTIF" sheetId="14" r:id="rId10"/>
-    <sheet name="SUMIF" sheetId="5" r:id="rId11"/>
-    <sheet name="Formatting" sheetId="15" r:id="rId12"/>
-    <sheet name="Power Query" sheetId="17" r:id="rId13"/>
-    <sheet name="Project" sheetId="6" r:id="rId14"/>
+    <sheet name="Data Validation" sheetId="18" r:id="rId9"/>
+    <sheet name="Relative and absolute" sheetId="13" r:id="rId10"/>
+    <sheet name="Subtotal" sheetId="19" r:id="rId11"/>
+    <sheet name="COUNTIF" sheetId="14" r:id="rId12"/>
+    <sheet name="SUMIF" sheetId="5" r:id="rId13"/>
+    <sheet name="Formatting" sheetId="15" r:id="rId14"/>
+    <sheet name="Power Query" sheetId="17" r:id="rId15"/>
+    <sheet name="Project" sheetId="6" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,6 +51,40 @@
     <author>DevReady</author>
   </authors>
   <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{BD9F123A-C9A3-4D21-82D6-7E36597D7A4B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Naji El Kotob:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>CTRL + ;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DevReady</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CACD1CFC-E916-4811-8BD1-550AC774CCFD}">
       <text>
         <r>
@@ -66,7 +102,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>DevReady</author>
@@ -103,12 +139,60 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>DevReady</author>
   </authors>
   <commentList>
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{5F597A5F-AB80-40C4-9E9A-90C70A863C73}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Hint! Consolidate</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DevReady</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{76F22C0A-C422-4340-9AE8-95BF99CA0327}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Naji El Kotob:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Options &gt; Adv &gt; General &gt; List</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4B1F3FD5-591D-4929-B55D-F6C90C24ED43}">
       <text>
         <r>
@@ -139,8 +223,36 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DevReady</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{78C38E6D-6B7D-402B-8CE7-42409EC95316}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://support.office.com/en-us/article/find-cells-that-have-data-validation-rules-7940468a-c95d-422f-a3fb-8fa0b90e5810
+On the Edit menu, point to Find, and then click Go To.
+Click Special.
+Select Data Validation.
+To find all cells with data validation, select All, and then click OK.
+To find cells that have the same validation rules as another cell, select Same, and then click OK.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14429" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14456" uniqueCount="463">
   <si>
     <t>2010s</t>
   </si>
@@ -580,9 +692,6 @@
     <t>4. Move values from Col4 to Col5</t>
   </si>
   <si>
-    <t>5. more…</t>
-  </si>
-  <si>
     <t>Data Types</t>
   </si>
   <si>
@@ -629,9 +738,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>SAR</t>
   </si>
   <si>
     <t>* F4</t>
@@ -1508,6 +1614,36 @@
   <si>
     <t>Total Sales for Mike</t>
   </si>
+  <si>
+    <t>Column chart (Names and Salary)</t>
+  </si>
+  <si>
+    <t>version 1.3</t>
+  </si>
+  <si>
+    <t>Radar chart (Position and Age). How to improve?</t>
+  </si>
+  <si>
+    <t>Define a "name" to improve the selection</t>
+  </si>
+  <si>
+    <t>5. more… (eg. Find, Replace)</t>
+  </si>
+  <si>
+    <t>LBP</t>
+  </si>
+  <si>
+    <t>Input Message</t>
+  </si>
+  <si>
+    <t>Whole Number</t>
+  </si>
+  <si>
+    <t>Find cells with Data validation</t>
+  </si>
+  <si>
+    <t>Whole Number (with warning)</t>
+  </si>
 </sst>
 </file>
 
@@ -1614,7 +1750,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1630,6 +1766,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,7 +1792,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1688,6 +1830,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4076,18 +4219,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975B07D4-7A8E-4D0B-A1AE-6063DD8C961C}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{975B07D4-7A8E-4D0B-A1AE-6063DD8C961C}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -4096,29 +4237,303 @@
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>454</v>
+      </c>
+    </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>177</v>
-      </c>
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706B2794-84FF-455B-B67E-63F3DA4DC2E3}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G2" s="22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{5ED5B151-9987-444F-92F4-7B23D15B320A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C5276DB-453E-444E-A530-D67E38B35C48}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE703217-D4F5-497A-8CFE-FC934748309B}">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -4135,26 +4550,26 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4162,10 +4577,10 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F4">
         <f>COUNTIF(B4:B14,D4)</f>
@@ -4181,10 +4596,10 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5">
         <f>COUNTIF(B4:B14,D5)</f>
@@ -4200,10 +4615,10 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="s">
         <v>170</v>
-      </c>
-      <c r="D6" t="s">
-        <v>172</v>
       </c>
       <c r="F6">
         <f>COUNTBLANK(B4:B14)</f>
@@ -4219,10 +4634,10 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
         <v>171</v>
-      </c>
-      <c r="D7" t="s">
-        <v>173</v>
       </c>
       <c r="F7">
         <f>COUNTA(B4:B14) - F4-F5</f>
@@ -4238,7 +4653,7 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -4246,7 +4661,7 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -4254,7 +4669,7 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -4262,7 +4677,7 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -4275,7 +4690,7 @@
         <v>1010</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -4283,7 +4698,7 @@
         <v>1011</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4291,7 +4706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452ECC34-B462-417E-942D-90571B64C282}">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -4348,7 +4763,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B6">
         <v>72350</v>
@@ -4366,7 +4781,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B7">
         <v>73790</v>
@@ -4403,7 +4818,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B9">
         <v>85490</v>
@@ -4438,7 +4853,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B11">
         <v>87490</v>
@@ -4455,7 +4870,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B12">
         <v>10300</v>
@@ -4472,7 +4887,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B13">
         <v>34596</v>
@@ -4497,7 +4912,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4519,12 +4934,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455380B1-CB0C-4570-80C1-5EB59591118C}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N1" activeCellId="1" sqref="C1:C18 N1:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5346,7 +5761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F2C680-BC03-4726-921C-79E66A1E0073}">
   <dimension ref="A1:E251"/>
   <sheetViews>
@@ -5365,4269 +5780,4269 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="D1" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="25" t="s">
         <v>182</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>188</v>
-      </c>
       <c r="E2" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D3" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D4" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D6" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D7" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D8" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D9" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D10" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D11" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D12" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D13" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D14" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D15" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D16" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D17" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D18" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D19" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D20" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D21" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D22" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D23" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D24" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D25" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D26" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D27" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D28" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D29" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B30" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D30" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D31" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D32" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B33" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D33" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D34" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B35" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D35" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D36" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D37" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D38" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D39" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D40" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D41" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B42" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D42" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B43" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D43" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D44" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D45" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D46" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D47" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D48" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D49" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D50" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D51" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D52" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D53" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B54" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D54" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B55" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D55" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B56" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D56" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B57" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D57" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B58" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D58" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B59" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D59" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D60" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D61" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B62" s="25" t="s">
-        <v>248</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D62" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D63" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D64" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D65" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B66" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D66" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D67" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D68" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B69" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D69" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B70" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D70" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B71" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D71" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D72" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B73" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D73" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B74" s="25" t="s">
-        <v>260</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D74" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B75" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>187</v>
-      </c>
       <c r="D75" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E108" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E115" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D132" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E132" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D133" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E133" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D134" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E134" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B135" s="25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C135" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E135" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B136" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E136" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E137" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E138" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C139" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E139" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C140" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E140" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C141" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E141" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C142" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B143" s="25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C143" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C144" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C145" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C146" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C147" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E147" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C148" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D148" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E148" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C149" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D149" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E149" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E150" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C151" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D151" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E151" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C152" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D152" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E152" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B153" s="25" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C153" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D153" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E153" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C154" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D154" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E154" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B155" s="25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C155" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E155" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B156" s="25" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C156" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D156" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E156" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B157" s="25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C157" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D157" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E157" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C158" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D158" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E158" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C159" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D159" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E159" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E160" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C161" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E161" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C162" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E162" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E163" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B164" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D164" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E164" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B165" s="25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E165" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B166" s="25" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D166" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E166" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C167" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E167" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C168" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D168" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E168" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C169" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D169" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E169" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E170" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C171" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E171" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C172" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E172" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B173" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C173" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D173" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E173" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C174" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D174" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E174" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B175" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C175" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E175" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B176" s="25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C176" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D176" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E176" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B177" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C177" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D177" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E177" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C178" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D178" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E178" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C179" s="25" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D179" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E179" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C180" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E180" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C181" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D181" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E181" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C182" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D182" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E182" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B183" s="25" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C183" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D183" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E183" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C184" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D184" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E184" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B185" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C185" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E185" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B186" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C186" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D186" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E186" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B187" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C187" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D187" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E187" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B188" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C188" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D188" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E188" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C189" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D189" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E189" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B190" s="25" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C190" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E190" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B191" s="25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C191" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D191" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E191" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B192" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C192" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D192" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E192" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B193" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C193" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D193" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E193" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C194" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D194" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E194" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C195" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E195" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C196" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D196" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E196" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C197" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D197" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E197" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C198" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D198" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E198" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B199" s="25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C199" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D199" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E199" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C200" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E200" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B201" s="25" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C201" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D201" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E201" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B202" s="25" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C202" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D202" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E202" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C203" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D203" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E203" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B204" s="25" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C204" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D204" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E204" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B205" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C205" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E205" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B206" s="25" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C206" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D206" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E206" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B207" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C207" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D207" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E207" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C208" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D208" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E208" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C209" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D209" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E209" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B210" s="25" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C210" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E210" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B211" s="25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C211" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D211" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E211" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B212" s="25" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C212" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D212" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E212" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B213" s="25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C213" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D213" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E213" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B214" s="25" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C214" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D214" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E214" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C215" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E215" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C216" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D216" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E216" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C217" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D217" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E217" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C218" s="25" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D218" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E218" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B219" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C219" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D219" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E219" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B220" s="25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C220" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E220" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C221" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D221" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E221" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B222" s="25" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C222" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D222" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E222" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B223" s="25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D223" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E223" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B224" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C224" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D224" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E224" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B225" s="25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C225" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E225" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C226" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D226" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E226" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C227" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D227" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E227" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B228" s="25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C228" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E228" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B229" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C229" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D229" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E229" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B230" s="25" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C230" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E230" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B231" s="25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C231" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E231" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B232" s="25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C232" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E232" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B233" s="25" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C233" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E233" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C234" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D234" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E234" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B235" s="25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C235" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E235" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B236" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C236" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D236" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E236" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B237" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C237" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D237" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E237" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B238" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C238" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D238" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E238" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B239" s="25" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C239" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D239" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E239" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B240" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C240" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E240" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B241" s="25" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C241" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D241" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E241" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C242" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D242" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E242" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C243" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D243" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E243" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C244" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D244" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E244" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C245" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E245" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B246" s="25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C246" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D246" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E246" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B247" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C247" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D247" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E247" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B248" s="25" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C248" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D248" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E248" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B249" s="25" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C249" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D249" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E249" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B250" s="25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C250" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E250" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C251" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E251" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -9635,7 +10050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE061722-C74B-43BC-ACCA-47DA088E34A7}">
   <dimension ref="A1:O2140"/>
   <sheetViews>
@@ -91000,7 +91415,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -91328,16 +91743,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769EBCA9-4C43-47BA-ABA6-6082ED017B07}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769EBCA9-4C43-47BA-ABA6-6082ED017B07}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -91430,9 +91848,39 @@
         <v>60</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>456</v>
+      </c>
+    </row>
   </sheetData>
+  <dataConsolidate function="average">
+    <dataRefs count="1">
+      <dataRef ref="H3:I8" sheet="Chart"/>
+    </dataRefs>
+  </dataConsolidate>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -91795,7 +92243,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -91867,7 +92315,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -91944,7 +92392,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -91968,12 +92416,12 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>134</v>
@@ -91981,23 +92429,23 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7">
         <v>123</v>
@@ -92005,7 +92453,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B8" s="17">
         <v>0.05</v>
@@ -92013,7 +92461,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9">
         <v>4.25</v>
@@ -92021,7 +92469,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -92029,7 +92477,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -92043,7 +92491,7 @@
         <v>43636</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -92056,13 +92504,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="20">
         <v>43636.024305555555</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -92071,106 +92519,54 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706B2794-84FF-455B-B67E-63F3DA4DC2E3}">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17D3978-6F12-405E-B2A7-69C7DA27EA72}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G2" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3">
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" t="s">
-        <v>162</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>164</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{5ED5B151-9987-444F-92F4-7B23D15B320A}"/>
-  </hyperlinks>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Enter a value ..." prompt="Choose a value between ..." sqref="B1" xr:uid="{E7F068D1-18DE-430B-99CC-451699217C07}"/>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Value" error="Please enter a number between 1 and 10" sqref="B3" xr:uid="{6FEF9B98-954D-48CF-A8B9-80502269CB88}">
+      <formula1>1</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{BFBB9AAA-ED87-49C8-9633-0C47793B58B6}">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -92178,7 +92574,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{795D8FE2-4104-42F8-AAF1-0F8B76E5487A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F9C0B8D-99D1-4F9D-9AB5-E3261468EB58}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/PowerBIAddIn"/>
   </ds:schemaRefs>
